--- a/enumerate/Resource_Type.xlsx
+++ b/enumerate/Resource_Type.xlsx
@@ -51,12 +51,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,6 +65,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -72,9 +87,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -82,30 +127,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -126,8 +147,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -135,29 +157,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,24 +171,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,15 +216,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -218,31 +226,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF48A088"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -254,85 +394,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -344,66 +412,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -412,17 +426,70 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -442,54 +509,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -517,10 +546,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -529,139 +558,148 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -716,6 +754,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="0048A088"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -985,51 +1028,52 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="A1" sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="10.375" customWidth="1"/>
+    <col min="1" max="1" width="11.625" customWidth="1"/>
+    <col min="2" max="2" width="8.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="1" ht="14.25" spans="1:2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+    <row r="2" ht="14.25" spans="1:2">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" t="s">
+      <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
     </row>
